--- a/kirill/Labor1/C++/AllGraf.xlsx
+++ b/kirill/Labor1/C++/AllGraf.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kirill\Desktop\C; C++\AlgIStructDan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/19df507ca623943a/GitHub/kirill/Labor1/C^M^M/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1146E2A-16D6-468A-8C79-B02BCF008075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{F1146E2A-16D6-468A-8C79-B02BCF008075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{681AC9F4-3354-4E58-A0A7-43CA6816ADCF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -779,10 +779,10 @@
                   <c:v>3.1720699999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="General">
-                  <c:v>3.6470000000000001E-3</c:v>
+                  <c:v>3.5469999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="General">
-                  <c:v>4.0879599999999999E-3</c:v>
+                  <c:v>3.9979600000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="General">
                   <c:v>4.4084900000000002E-3</c:v>
@@ -1875,7 +1875,7 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AF16" sqref="AF16"/>
+      <selection activeCell="AG10" sqref="AG9:AG10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2240,7 +2240,7 @@
         <v>1700</v>
       </c>
       <c r="H18">
-        <v>3.6470000000000001E-3</v>
+        <v>3.5469999999999998E-3</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
@@ -2260,7 +2260,7 @@
         <v>1800</v>
       </c>
       <c r="H19">
-        <v>4.0879599999999999E-3</v>
+        <v>3.9979600000000001E-3</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
